--- a/15_レビュー結果記録.xlsx
+++ b/15_レビュー結果記録.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{DC48B12A-2278-4A4B-A35C-D73A9AA15543}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6E16DCB1-0E65-4F22-9741-5CA404B6E42D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF361D8-35FA-44CE-AB74-DF182E2067A5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="495" yWindow="330" windowWidth="18375" windowHeight="10290" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="7" r:id="rId1"/>
@@ -13,14 +13,12 @@
     <sheet name="レビュー結果サンプル" sheetId="5" r:id="rId3"/>
     <sheet name="レビュー結果" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="49">
   <si>
     <t>会議名</t>
     <rPh sb="0" eb="2">
@@ -67,17 +65,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2020/06/02 (火曜日)
-11:10-11:25</t>
-    <rPh sb="12" eb="13">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヨウビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>オンライン</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -89,10 +76,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>浅川、川端、立石、舟橋、三上、
-国正(敬称略)</t>
-  </si>
-  <si>
     <t>レビューア</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -102,9 +85,6 @@
       <t>ショキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>国正</t>
   </si>
   <si>
     <t>舟橋</t>
@@ -359,6 +339,47 @@
   </si>
   <si>
     <t>プロセス「2.2発注する」の粒度を見直す</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浅川、川端、立石、舟橋、三上、
+蜂須賀(敬称略)</t>
+    <rPh sb="16" eb="19">
+      <t>ハチスカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>蜂須賀</t>
+    <rPh sb="0" eb="3">
+      <t>ハチスカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020/06/02 (火曜日)
+13:45-14:00</t>
+    <rPh sb="12" eb="13">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヨウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020/06/02 (火曜日)
+14:50-15:05</t>
+    <rPh sb="12" eb="13">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヨウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計画立案</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -366,7 +387,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -689,7 +710,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -745,50 +766,59 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -916,7 +946,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1237,191 +1267,467 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" zoomScale="92" zoomScaleNormal="85" zoomScalePageLayoutView="92" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="F1" zoomScale="92" zoomScaleNormal="85" zoomScalePageLayoutView="92" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.625" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="20.875" customWidth="1"/>
     <col min="4" max="4" width="18.25" customWidth="1"/>
+    <col min="6" max="6" width="16.875" customWidth="1"/>
+    <col min="8" max="8" width="27" customWidth="1"/>
+    <col min="9" max="9" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="22"/>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A2" s="30" t="s">
+      <c r="F1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="22"/>
+      <c r="H1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="21"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="20"/>
+    </row>
+    <row r="2" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="F2" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="24"/>
+      <c r="H2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="23"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="19"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A3" s="25" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="26" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
+      <c r="F3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="27"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="27"/>
+    </row>
+    <row r="4" spans="1:18" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="29"/>
+      <c r="F4" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="29"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="24"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
-    </row>
-    <row r="4" spans="1:4" ht="27.75" customHeight="1">
-      <c r="A4" s="30" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="28" t="s">
+      <c r="D5" s="27"/>
+      <c r="F5" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="22"/>
+      <c r="H5" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="27"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="27"/>
+    </row>
+    <row r="6" spans="1:18" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="26" t="s">
+      <c r="D6" s="24"/>
+      <c r="F6" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="24"/>
+      <c r="H6" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="24"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="24"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="33"/>
-    </row>
-    <row r="6" spans="1:4" ht="27.75" customHeight="1">
-      <c r="A6" s="30" t="s">
+      <c r="B7" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="30" t="s">
+      <c r="C7" s="26"/>
+      <c r="D7" s="27"/>
+      <c r="F7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="26"/>
+      <c r="I7" s="27"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="27"/>
+    </row>
+    <row r="8" spans="1:18" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="31"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="6" t="s">
+      <c r="B8" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
+      <c r="F8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="29"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="29"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A9" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
-    </row>
-    <row r="8" spans="1:4" ht="36" customHeight="1" thickBot="1">
-      <c r="A8" s="8" t="s">
+      <c r="B9" s="33"/>
+      <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="26" t="s">
+      <c r="F9" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="33"/>
+      <c r="H9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" s="25"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="5"/>
+    </row>
+    <row r="10" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="4" t="s">
+      <c r="B10" s="31"/>
+      <c r="C10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D10" s="14">
+        <v>1</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="31"/>
+      <c r="H10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="14">
+        <v>0</v>
+      </c>
+      <c r="O10" s="30"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="14"/>
+    </row>
+    <row r="11" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="30" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="21" t="s">
+      <c r="B11" s="31"/>
+      <c r="C11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="14"/>
-    </row>
-    <row r="11" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A11" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="14"/>
-    </row>
-    <row r="12" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A12" s="21"/>
-      <c r="B12" s="22"/>
+      <c r="D11" s="14">
+        <v>1</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="31"/>
+      <c r="H11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="14">
+        <v>0</v>
+      </c>
+      <c r="O11" s="30"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="14"/>
+    </row>
+    <row r="12" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="30"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="13"/>
       <c r="D12" s="14"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="14"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="14"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A13" s="30"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="14"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="14"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A14" s="30"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="14"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="14"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A15" s="30"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="14"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="14"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A16" s="30"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="14"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="14"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A17" s="30"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="21"/>
-      <c r="B18" s="22"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="14"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="14"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A18" s="30"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
-    </row>
-    <row r="19" spans="1:4" ht="14.25" thickBot="1">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="14"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="14"/>
+    </row>
+    <row r="19" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="34"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
-    </row>
-    <row r="20" spans="1:4" ht="14.25" thickBot="1">
+      <c r="F19" s="34"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="11"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="11"/>
+    </row>
+    <row r="20" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C20" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="16" t="str">
+        <v>20</v>
+      </c>
+      <c r="D20" s="16">
         <f>IF(SUM(D10:D19)=0,"",SUM(D10:D19))</f>
+        <v>2</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="16" t="str">
+        <f>IF(SUM(I10:I19)=0,"",SUM(I10:I19))</f>
         <v/>
       </c>
+      <c r="Q20" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="R20" s="16" t="str">
+        <f>IF(SUM(R10:R19)=0,"",SUM(R10:R19))</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="63">
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:D3"/>
@@ -1432,21 +1738,10 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8 F8 O8" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"計画立案,要求分析,構造化分析,構造化設計,実装／単体テスト,テスト,その他"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1466,7 +1761,7 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.625" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
@@ -1474,11 +1769,11 @@
     <col min="4" max="4" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="22"/>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1486,168 +1781,168 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:7" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
+    </row>
+    <row r="4" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="7" t="s">
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="29"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="27"/>
+    </row>
+    <row r="6" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="12"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
-    </row>
-    <row r="4" spans="1:7" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A4" s="23" t="s">
+      <c r="D6" s="24"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="27"/>
+    </row>
+    <row r="8" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="33"/>
-    </row>
-    <row r="6" spans="1:7" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A6" s="30" t="s">
+      <c r="B8" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="30" t="s">
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="33"/>
+      <c r="C9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="31"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
-    </row>
-    <row r="8" spans="1:7" ht="36" customHeight="1" thickBot="1">
-      <c r="A8" s="8" t="s">
+      <c r="B10" s="31"/>
+      <c r="C10" s="13" t="s">
         <v>30</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="13" t="s">
-        <v>33</v>
       </c>
       <c r="D10" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A11" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="22"/>
+    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="31"/>
       <c r="C11" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D11" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A12" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="22"/>
+    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="31"/>
       <c r="C12" s="13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D12" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="30"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="30"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="30"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="30"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="30"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="21"/>
-      <c r="B18" s="22"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="30"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="1:4" ht="14.25" thickBot="1">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
+    <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="34"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
     </row>
-    <row r="20" spans="1:4" ht="14.25" thickBot="1">
+    <row r="20" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C20" s="15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D20" s="16">
         <f>IF(SUM(D10:D19)=0,"",SUM(D10:D19))</f>
@@ -1656,6 +1951,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
@@ -1665,18 +1972,6 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -1700,7 +1995,7 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
@@ -1710,53 +2005,53 @@
     <col min="6" max="6" width="53.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="59.25" customHeight="1">
+    </row>
+    <row r="2" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="G2" s="9">
         <v>40686</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1765,7 +2060,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1774,7 +2069,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1783,7 +2078,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1792,7 +2087,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1801,7 +2096,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1810,7 +2105,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1819,7 +2114,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1828,7 +2123,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1837,7 +2132,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1846,7 +2141,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1855,7 +2150,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1864,7 +2159,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1873,7 +2168,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1882,7 +2177,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1891,7 +2186,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1900,7 +2195,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1909,7 +2204,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1918,7 +2213,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1927,7 +2222,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1936,7 +2231,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1965,11 +2260,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="99" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
@@ -1979,30 +2274,30 @@
     <col min="6" max="6" width="53.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2011,7 +2306,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2020,7 +2315,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2029,7 +2324,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2038,7 +2333,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2047,7 +2342,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2056,7 +2351,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2065,7 +2360,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2074,7 +2369,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2083,7 +2378,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2092,7 +2387,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2101,7 +2396,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2110,7 +2405,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2119,7 +2414,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2128,7 +2423,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2137,7 +2432,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2146,7 +2441,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2155,7 +2450,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2164,7 +2459,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2173,7 +2468,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2182,7 +2477,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2191,7 +2486,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2215,21 +2510,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2413,14 +2693,52 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94CEECAD-71A6-41DD-8A07-4B3A9940E3CF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FEC69DF-4FC5-4CFA-A4E1-A18929104C19}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FEC69DF-4FC5-4CFA-A4E1-A18929104C19}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94CEECAD-71A6-41DD-8A07-4B3A9940E3CF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/15_レビュー結果記録.xlsx
+++ b/15_レビュー結果記録.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF361D8-35FA-44CE-AB74-DF182E2067A5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754FCC75-EF5F-41DE-A86F-FD2333121BCB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -772,50 +772,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1269,7 +1269,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="F1" zoomScale="92" zoomScaleNormal="85" zoomScalePageLayoutView="92" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B1" zoomScale="92" zoomScaleNormal="85" zoomScalePageLayoutView="92" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
@@ -1285,183 +1285,183 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="35"/>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="22"/>
+      <c r="G1" s="35"/>
       <c r="H1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="21"/>
-      <c r="P1" s="22"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="35"/>
       <c r="Q1" s="6"/>
       <c r="R1" s="20"/>
     </row>
     <row r="2" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="24"/>
+      <c r="G2" s="26"/>
       <c r="H2" s="7" t="s">
         <v>47</v>
       </c>
       <c r="I2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="23"/>
-      <c r="P2" s="24"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="26"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="19"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
-      <c r="F3" s="25" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="F3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="27"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="27"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="29"/>
     </row>
     <row r="4" spans="1:18" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="29"/>
-      <c r="F4" s="23" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="F4" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="29"/>
-      <c r="O4" s="23"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="32"/>
+      <c r="O4" s="25"/>
       <c r="P4" s="36"/>
       <c r="Q4" s="36"/>
-      <c r="R4" s="24"/>
+      <c r="R4" s="26"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="25" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="F5" s="21" t="s">
+      <c r="D5" s="29"/>
+      <c r="F5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="25" t="s">
+      <c r="G5" s="35"/>
+      <c r="H5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="27"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="27"/>
+      <c r="I5" s="29"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="29"/>
     </row>
     <row r="6" spans="1:18" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="23" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="F6" s="23" t="s">
+      <c r="D6" s="26"/>
+      <c r="F6" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="23" t="s">
+      <c r="G6" s="26"/>
+      <c r="H6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="24"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="24"/>
+      <c r="I6" s="26"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="26"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="29"/>
       <c r="F7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29"/>
       <c r="O7" s="6"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="29"/>
     </row>
     <row r="8" spans="1:18" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="29"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
       <c r="F8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="29"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="32"/>
       <c r="O8" s="8"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="29"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="32"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="27" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="33"/>
@@ -1471,7 +1471,7 @@
       <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="27" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="33"/>
@@ -1481,172 +1481,172 @@
       <c r="I9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="O9" s="25"/>
+      <c r="O9" s="27"/>
       <c r="P9" s="33"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="5"/>
     </row>
     <row r="10" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="31"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="14">
         <v>1</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="31"/>
+      <c r="G10" s="22"/>
       <c r="H10" s="13" t="s">
         <v>17</v>
       </c>
       <c r="I10" s="14">
         <v>0</v>
       </c>
-      <c r="O10" s="30"/>
-      <c r="P10" s="31"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="22"/>
       <c r="Q10" s="13"/>
       <c r="R10" s="14"/>
     </row>
     <row r="11" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="31"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="14">
         <v>1</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="31"/>
+      <c r="G11" s="22"/>
       <c r="H11" s="13" t="s">
         <v>19</v>
       </c>
       <c r="I11" s="14">
         <v>0</v>
       </c>
-      <c r="O11" s="30"/>
-      <c r="P11" s="31"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="22"/>
       <c r="Q11" s="13"/>
       <c r="R11" s="14"/>
     </row>
     <row r="12" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="30"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="13"/>
       <c r="D12" s="14"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="31"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
       <c r="H12" s="13"/>
       <c r="I12" s="14"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="31"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="22"/>
       <c r="Q12" s="13"/>
       <c r="R12" s="14"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="31"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22"/>
       <c r="H13" s="13"/>
       <c r="I13" s="14"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="31"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="22"/>
       <c r="Q13" s="13"/>
       <c r="R13" s="14"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A14" s="30"/>
-      <c r="B14" s="31"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="31"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
       <c r="H14" s="13"/>
       <c r="I14" s="14"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="31"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="22"/>
       <c r="Q14" s="13"/>
       <c r="R14" s="14"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A15" s="30"/>
-      <c r="B15" s="31"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="31"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22"/>
       <c r="H15" s="13"/>
       <c r="I15" s="14"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="31"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="22"/>
       <c r="Q15" s="13"/>
       <c r="R15" s="14"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
       <c r="H16" s="13"/>
       <c r="I16" s="14"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="31"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="22"/>
       <c r="Q16" s="13"/>
       <c r="R16" s="14"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A17" s="30"/>
-      <c r="B17" s="31"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="22"/>
       <c r="H17" s="13"/>
       <c r="I17" s="14"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="31"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="22"/>
       <c r="Q17" s="13"/>
       <c r="R17" s="14"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A18" s="30"/>
-      <c r="B18" s="31"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="31"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
       <c r="H18" s="13"/>
       <c r="I18" s="14"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="31"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="22"/>
       <c r="Q18" s="13"/>
       <c r="R18" s="14"/>
     </row>
     <row r="19" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="34"/>
-      <c r="B19" s="35"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="35"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="24"/>
       <c r="H19" s="10"/>
       <c r="I19" s="11"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="35"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="24"/>
       <c r="Q19" s="10"/>
       <c r="R19" s="11"/>
     </row>
@@ -1675,59 +1675,6 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:D3"/>
@@ -1738,6 +1685,59 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O19:P19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -1770,10 +1770,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="35"/>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1782,10 +1782,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
@@ -1795,63 +1795,63 @@
       <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
     </row>
     <row r="4" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="29"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="25" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="29"/>
     </row>
     <row r="6" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="23" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="24"/>
+      <c r="D6" s="26"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="29"/>
     </row>
     <row r="8" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="29"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="27" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="33"/>
@@ -1863,10 +1863,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="31"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="13" t="s">
         <v>30</v>
       </c>
@@ -1875,10 +1875,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="31"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="13" t="s">
         <v>26</v>
       </c>
@@ -1887,10 +1887,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="31"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="13" t="s">
         <v>30</v>
       </c>
@@ -1899,44 +1899,44 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="30"/>
-      <c r="B14" s="31"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="30"/>
-      <c r="B15" s="31"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="30"/>
-      <c r="B17" s="31"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="30"/>
-      <c r="B18" s="31"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="34"/>
-      <c r="B19" s="35"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
     </row>
@@ -1951,18 +1951,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
@@ -1972,6 +1960,18 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -2510,6 +2510,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2693,22 +2708,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94CEECAD-71A6-41DD-8A07-4B3A9940E3CF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FEC69DF-4FC5-4CFA-A4E1-A18929104C19}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2724,21 +2741,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94CEECAD-71A6-41DD-8A07-4B3A9940E3CF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/15_レビュー結果記録.xlsx
+++ b/15_レビュー結果記録.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754FCC75-EF5F-41DE-A86F-FD2333121BCB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD85EFAA-325B-41F6-B5AF-327F5E618CDB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="50">
   <si>
     <t>会議名</t>
     <rPh sb="0" eb="2">
@@ -112,16 +112,6 @@
   </si>
   <si>
     <t>計画立案</t>
-  </si>
-  <si>
-    <t>反復計画書・ガントチャートのレビュー</t>
-    <rPh sb="0" eb="2">
-      <t>ハンプク</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ケイカクショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>レビュー対象</t>
@@ -380,6 +370,32 @@
   </si>
   <si>
     <t>計画立案</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反復計画書・ガントチャートのレビュー：不合格</t>
+    <rPh sb="0" eb="2">
+      <t>ハンプク</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ケイカクショ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>フゴウカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反復計画書・ガントチャートのレビュー：合格</t>
+    <rPh sb="0" eb="2">
+      <t>ハンプク</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ケイカクショ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ゴウカク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -772,6 +788,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -779,43 +822,16 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1269,8 +1285,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B1" zoomScale="92" zoomScaleNormal="85" zoomScalePageLayoutView="92" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B4" zoomScale="92" zoomScaleNormal="85" zoomScalePageLayoutView="92" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1285,388 +1301,388 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="22"/>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="35"/>
+      <c r="G1" s="22"/>
       <c r="H1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="34"/>
-      <c r="P1" s="35"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="22"/>
       <c r="Q1" s="6"/>
       <c r="R1" s="20"/>
     </row>
     <row r="2" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="26"/>
+      <c r="G2" s="24"/>
       <c r="H2" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="25"/>
-      <c r="P2" s="26"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="24"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="19"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29"/>
-      <c r="F3" s="27" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
+      <c r="F3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="29"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="29"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="27"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="27"/>
     </row>
     <row r="4" spans="1:18" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32"/>
-      <c r="F4" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="32"/>
-      <c r="O4" s="25"/>
+      <c r="A4" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="29"/>
+      <c r="F4" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="29"/>
+      <c r="O4" s="23"/>
       <c r="P4" s="36"/>
       <c r="Q4" s="36"/>
-      <c r="R4" s="26"/>
+      <c r="R4" s="24"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="27" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="F5" s="34" t="s">
+      <c r="D5" s="27"/>
+      <c r="F5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="27" t="s">
+      <c r="G5" s="22"/>
+      <c r="H5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="29"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="29"/>
+      <c r="I5" s="27"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="27"/>
     </row>
     <row r="6" spans="1:18" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="25" t="s">
+      <c r="A6" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="F6" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="25" t="s">
+      <c r="D6" s="24"/>
+      <c r="F6" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="24"/>
+      <c r="H6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="26"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="26"/>
+      <c r="I6" s="24"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="24"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="29"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="27"/>
       <c r="F7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="29"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="27"/>
       <c r="O7" s="6"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="29"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="27"/>
     </row>
     <row r="8" spans="1:18" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
+      <c r="F8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="29"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="29"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A9" s="25" t="s">
         <v>12</v>
-      </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="32"/>
-      <c r="F8" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="31"/>
-      <c r="I8" s="32"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="32"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A9" s="27" t="s">
-        <v>13</v>
       </c>
       <c r="B9" s="33"/>
       <c r="C9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>13</v>
+      <c r="F9" s="25" t="s">
+        <v>12</v>
       </c>
       <c r="G9" s="33"/>
       <c r="H9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="O9" s="27"/>
+      <c r="O9" s="25"/>
       <c r="P9" s="33"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="5"/>
     </row>
     <row r="10" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="13" t="s">
         <v>16</v>
-      </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="13" t="s">
-        <v>17</v>
       </c>
       <c r="D10" s="14">
         <v>1</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="31"/>
+      <c r="H10" s="13" t="s">
         <v>16</v>
-      </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="13" t="s">
-        <v>17</v>
       </c>
       <c r="I10" s="14">
         <v>0</v>
       </c>
-      <c r="O10" s="21"/>
-      <c r="P10" s="22"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="31"/>
       <c r="Q10" s="13"/>
       <c r="R10" s="14"/>
     </row>
     <row r="11" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="31"/>
+      <c r="C11" s="13" t="s">
         <v>18</v>
-      </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="13" t="s">
-        <v>19</v>
       </c>
       <c r="D11" s="14">
         <v>1</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="31"/>
+      <c r="H11" s="13" t="s">
         <v>18</v>
-      </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="13" t="s">
-        <v>19</v>
       </c>
       <c r="I11" s="14">
         <v>0</v>
       </c>
-      <c r="O11" s="21"/>
-      <c r="P11" s="22"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="31"/>
       <c r="Q11" s="13"/>
       <c r="R11" s="14"/>
     </row>
     <row r="12" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="21"/>
-      <c r="B12" s="22"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="13"/>
       <c r="D12" s="14"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="22"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="31"/>
       <c r="H12" s="13"/>
       <c r="I12" s="14"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="22"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="31"/>
       <c r="Q12" s="13"/>
       <c r="R12" s="14"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="22"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="31"/>
       <c r="H13" s="13"/>
       <c r="I13" s="14"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="22"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="31"/>
       <c r="Q13" s="13"/>
       <c r="R13" s="14"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="22"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="31"/>
       <c r="H14" s="13"/>
       <c r="I14" s="14"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="22"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="31"/>
       <c r="Q14" s="13"/>
       <c r="R14" s="14"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="22"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31"/>
       <c r="H15" s="13"/>
       <c r="I15" s="14"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="22"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="31"/>
       <c r="Q15" s="13"/>
       <c r="R15" s="14"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="22"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
       <c r="H16" s="13"/>
       <c r="I16" s="14"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="22"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="31"/>
       <c r="Q16" s="13"/>
       <c r="R16" s="14"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="22"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
       <c r="H17" s="13"/>
       <c r="I17" s="14"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="22"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="31"/>
       <c r="Q17" s="13"/>
       <c r="R17" s="14"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A18" s="21"/>
-      <c r="B18" s="22"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="31"/>
       <c r="H18" s="13"/>
       <c r="I18" s="14"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="22"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="31"/>
       <c r="Q18" s="13"/>
       <c r="R18" s="14"/>
     </row>
     <row r="19" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="23"/>
-      <c r="B19" s="24"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="24"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="35"/>
       <c r="H19" s="10"/>
       <c r="I19" s="11"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="24"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="35"/>
       <c r="Q19" s="10"/>
       <c r="R19" s="11"/>
     </row>
     <row r="20" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C20" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" s="16">
         <f>IF(SUM(D10:D19)=0,"",SUM(D10:D19))</f>
         <v>2</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I20" s="16" t="str">
         <f>IF(SUM(I10:I19)=0,"",SUM(I10:I19))</f>
         <v/>
       </c>
       <c r="Q20" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R20" s="16" t="str">
         <f>IF(SUM(R10:R19)=0,"",SUM(R10:R19))</f>
@@ -1675,6 +1691,59 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:D3"/>
@@ -1685,59 +1754,6 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O19:P19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -1770,10 +1786,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="22"/>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1782,167 +1798,167 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
+    </row>
+    <row r="4" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="12"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29"/>
-    </row>
-    <row r="4" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="29"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="27"/>
+    </row>
+    <row r="6" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="29"/>
-    </row>
-    <row r="6" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="26"/>
+      <c r="D6" s="24"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="29"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="32"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="27" t="s">
-        <v>13</v>
+      <c r="A9" s="25" t="s">
+        <v>12</v>
       </c>
       <c r="B9" s="33"/>
       <c r="C9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="13" t="s">
         <v>29</v>
-      </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="13" t="s">
-        <v>30</v>
       </c>
       <c r="D10" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="22"/>
+      <c r="A11" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="31"/>
       <c r="C11" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="22"/>
+      <c r="A12" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="31"/>
       <c r="C12" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="21"/>
-      <c r="B18" s="22"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="23"/>
-      <c r="B19" s="24"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C20" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" s="16">
         <f>IF(SUM(D10:D19)=0,"",SUM(D10:D19))</f>
@@ -1951,6 +1967,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
@@ -1960,18 +1988,6 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -2007,25 +2023,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2033,19 +2049,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="G2" s="9">
         <v>40686</v>
@@ -2276,25 +2292,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -2510,21 +2526,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2708,24 +2709,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94CEECAD-71A6-41DD-8A07-4B3A9940E3CF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FEC69DF-4FC5-4CFA-A4E1-A18929104C19}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2741,4 +2740,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94CEECAD-71A6-41DD-8A07-4B3A9940E3CF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/15_レビュー結果記録.xlsx
+++ b/15_レビュー結果記録.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD85EFAA-325B-41F6-B5AF-327F5E618CDB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBDA6A3-397E-4DBE-BF92-3A9EEEE627FF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="59">
   <si>
     <t>会議名</t>
     <rPh sb="0" eb="2">
@@ -369,10 +369,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>計画立案</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>反復計画書・ガントチャートのレビュー：不合格</t>
     <rPh sb="0" eb="2">
       <t>ハンプク</t>
@@ -386,15 +382,91 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>反復計画書・ガントチャートのレビュー：合格</t>
+    <t>反復1 第3回レビュー</t>
     <rPh sb="0" eb="2">
       <t>ハンプク</t>
     </rPh>
-    <rPh sb="2" eb="5">
-      <t>ケイカクショ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ゴウカク</t>
+    <rPh sb="4" eb="5">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浅川、川端、立石、舟橋、三上、
+国正(敬称略)</t>
+    <rPh sb="16" eb="18">
+      <t>クニマサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>国正</t>
+    <rPh sb="0" eb="2">
+      <t>クニマサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三上</t>
+    <rPh sb="0" eb="2">
+      <t>ミカミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要求分析</t>
+  </si>
+  <si>
+    <t>要求分析のレビュー</t>
+    <rPh sb="0" eb="4">
+      <t>ヨウキュウブンセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユースケース図</t>
+    <rPh sb="6" eb="7">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユースケース記述</t>
+    <rPh sb="6" eb="8">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムテスト仕様書</t>
+    <rPh sb="7" eb="10">
+      <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非機能要求一覧</t>
+    <rPh sb="0" eb="5">
+      <t>ヒキノウヨウキュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三上、川端、舟橋</t>
+    <rPh sb="0" eb="2">
+      <t>ミカミ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カワバタ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>フナハシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -788,50 +860,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1285,8 +1357,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B4" zoomScale="92" zoomScaleNormal="85" zoomScalePageLayoutView="92" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:I8"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B1" zoomScale="92" zoomScaleNormal="85" zoomScalePageLayoutView="92" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1301,183 +1373,183 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="35"/>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="22"/>
+      <c r="G1" s="35"/>
       <c r="H1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="21"/>
-      <c r="P1" s="22"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="35"/>
       <c r="Q1" s="6"/>
       <c r="R1" s="20"/>
     </row>
     <row r="2" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="24"/>
+      <c r="F2" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="26"/>
       <c r="H2" s="7" t="s">
         <v>46</v>
       </c>
       <c r="I2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="23"/>
-      <c r="P2" s="24"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="26"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="19"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
-      <c r="F3" s="25" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="F3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="27"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="27"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="29"/>
     </row>
     <row r="4" spans="1:18" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="29"/>
-      <c r="F4" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="29"/>
-      <c r="O4" s="23"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="F4" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="32"/>
+      <c r="O4" s="25"/>
       <c r="P4" s="36"/>
       <c r="Q4" s="36"/>
-      <c r="R4" s="24"/>
+      <c r="R4" s="26"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="25" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="F5" s="21" t="s">
+      <c r="D5" s="29"/>
+      <c r="F5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="25" t="s">
+      <c r="G5" s="35"/>
+      <c r="H5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="27"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="27"/>
+      <c r="I5" s="29"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="29"/>
     </row>
     <row r="6" spans="1:18" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="23" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="F6" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="24"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="24"/>
+      <c r="D6" s="26"/>
+      <c r="F6" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="26"/>
+      <c r="H6" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="26"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="26"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="29"/>
       <c r="F7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29"/>
       <c r="O7" s="6"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="29"/>
     </row>
     <row r="8" spans="1:18" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="29"/>
+      <c r="B8" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
       <c r="F8" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="29"/>
+        <v>52</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="31"/>
+      <c r="I8" s="32"/>
       <c r="O8" s="8"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="29"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="32"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="27" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="33"/>
@@ -1487,7 +1559,7 @@
       <c r="D9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="27" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="33"/>
@@ -1497,172 +1569,176 @@
       <c r="I9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O9" s="25"/>
+      <c r="O9" s="27"/>
       <c r="P9" s="33"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="5"/>
     </row>
     <row r="10" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="31"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="14">
         <v>1</v>
       </c>
-      <c r="F10" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="31"/>
+      <c r="F10" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="22"/>
       <c r="H10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="14">
-        <v>0</v>
-      </c>
-      <c r="O10" s="30"/>
-      <c r="P10" s="31"/>
+      <c r="I10" s="14"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="22"/>
       <c r="Q10" s="13"/>
       <c r="R10" s="14"/>
     </row>
     <row r="11" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="31"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="14">
         <v>1</v>
       </c>
-      <c r="F11" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="31"/>
+      <c r="F11" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="22"/>
       <c r="H11" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="14">
-        <v>0</v>
-      </c>
-      <c r="O11" s="30"/>
-      <c r="P11" s="31"/>
+        <v>16</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="22"/>
       <c r="Q11" s="13"/>
       <c r="R11" s="14"/>
     </row>
     <row r="12" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="30"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="13"/>
       <c r="D12" s="14"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="13"/>
+      <c r="F12" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="22"/>
+      <c r="H12" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="I12" s="14"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="31"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="22"/>
       <c r="Q12" s="13"/>
       <c r="R12" s="14"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="13"/>
+      <c r="F13" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="22"/>
+      <c r="H13" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="I13" s="14"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="31"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="22"/>
       <c r="Q13" s="13"/>
       <c r="R13" s="14"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A14" s="30"/>
-      <c r="B14" s="31"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="31"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
       <c r="H14" s="13"/>
       <c r="I14" s="14"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="31"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="22"/>
       <c r="Q14" s="13"/>
       <c r="R14" s="14"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A15" s="30"/>
-      <c r="B15" s="31"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="31"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22"/>
       <c r="H15" s="13"/>
       <c r="I15" s="14"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="31"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="22"/>
       <c r="Q15" s="13"/>
       <c r="R15" s="14"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
       <c r="H16" s="13"/>
       <c r="I16" s="14"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="31"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="22"/>
       <c r="Q16" s="13"/>
       <c r="R16" s="14"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A17" s="30"/>
-      <c r="B17" s="31"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="22"/>
       <c r="H17" s="13"/>
       <c r="I17" s="14"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="31"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="22"/>
       <c r="Q17" s="13"/>
       <c r="R17" s="14"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A18" s="30"/>
-      <c r="B18" s="31"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="31"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
       <c r="H18" s="13"/>
       <c r="I18" s="14"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="31"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="22"/>
       <c r="Q18" s="13"/>
       <c r="R18" s="14"/>
     </row>
     <row r="19" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="34"/>
-      <c r="B19" s="35"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="35"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="24"/>
       <c r="H19" s="10"/>
       <c r="I19" s="11"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="35"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="24"/>
       <c r="Q19" s="10"/>
       <c r="R19" s="11"/>
     </row>
@@ -1691,59 +1767,6 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:D3"/>
@@ -1754,6 +1777,59 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O19:P19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -1786,10 +1862,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="35"/>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1798,10 +1874,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
         <v>21</v>
       </c>
@@ -1811,63 +1887,63 @@
       <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
     </row>
     <row r="4" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="29"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="25" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="29"/>
     </row>
     <row r="6" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="23" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="24"/>
+      <c r="D6" s="26"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="29"/>
     </row>
     <row r="8" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="29"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="27" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="33"/>
@@ -1879,10 +1955,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="31"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="13" t="s">
         <v>29</v>
       </c>
@@ -1891,10 +1967,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="31"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="13" t="s">
         <v>25</v>
       </c>
@@ -1903,10 +1979,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="31"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="13" t="s">
         <v>29</v>
       </c>
@@ -1915,44 +1991,44 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="30"/>
-      <c r="B14" s="31"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="30"/>
-      <c r="B15" s="31"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="30"/>
-      <c r="B17" s="31"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="30"/>
-      <c r="B18" s="31"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="34"/>
-      <c r="B19" s="35"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
     </row>
@@ -1967,18 +2043,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
@@ -1988,6 +2052,18 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -2526,6 +2602,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2709,22 +2800,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94CEECAD-71A6-41DD-8A07-4B3A9940E3CF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FEC69DF-4FC5-4CFA-A4E1-A18929104C19}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2740,21 +2833,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94CEECAD-71A6-41DD-8A07-4B3A9940E3CF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/15_レビュー結果記録.xlsx
+++ b/15_レビュー結果記録.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBDA6A3-397E-4DBE-BF92-3A9EEEE627FF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F52951-E460-40ED-B01D-72C029A8A49A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="80">
   <si>
     <t>会議名</t>
     <rPh sb="0" eb="2">
@@ -410,21 +410,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>三上</t>
-    <rPh sb="0" eb="2">
-      <t>ミカミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>要求分析</t>
-  </si>
-  <si>
-    <t>要求分析のレビュー</t>
-    <rPh sb="0" eb="4">
-      <t>ヨウキュウブンセキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ユースケース図</t>
@@ -467,6 +453,220 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>フナハシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反復計画書・ガントチャートのレビュー：合格</t>
+    <rPh sb="0" eb="2">
+      <t>ハンプク</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ケイカクショ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ゴウカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020/06/03 (水曜日)
+11:50-12:05</t>
+    <rPh sb="12" eb="13">
+      <t>スイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヨウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三上、川端</t>
+    <rPh sb="0" eb="2">
+      <t>ミカミ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カワバタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成果物のところは行動でなく作成するものを書く</t>
+    <rPh sb="0" eb="3">
+      <t>セイカブツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次回のレビューまでに訂正する。</t>
+    <rPh sb="0" eb="2">
+      <t>ジカイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WBSガントチャート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3日にやる予定の分析が2日の項目にある。</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次回のレビューまでに訂正する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工数の合計が5人のフルタイムを超えている。</t>
+    <rPh sb="0" eb="2">
+      <t>コウスウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゴニン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反復計画書</t>
+  </si>
+  <si>
+    <t>その他</t>
+  </si>
+  <si>
+    <t>訂正なし。</t>
+  </si>
+  <si>
+    <t>蜂須賀</t>
+  </si>
+  <si>
+    <t>WBSガントチャート</t>
+  </si>
+  <si>
+    <t>要求分析のレビュー：不合格</t>
+    <rPh sb="0" eb="4">
+      <t>ヨウキュウブンセキ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>フゴウカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見やすいように目的、シナリオに番号を振る</t>
+    <rPh sb="0" eb="1">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本系列の”プレイヤーが記号を書く”は”プレイヤーマスを指定”の方が良い。</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケイレツ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本系列の反復が動いてるか確認するために表示機能を入れておいたほうが良い。</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケイレツ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本系列の3を”埋まらなかったら1に戻る。”に変更。</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケイレツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>失敗例も書く→重複と範囲外</t>
+  </si>
+  <si>
+    <t>No04の1つ目は機能要求</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要求に対する対応について
+書き方として結果や履歴を残しておくこれを反復3で実装予定</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非機能要求</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨウキュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -798,7 +998,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -904,9 +1104,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1357,8 +1554,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B1" zoomScale="92" zoomScaleNormal="85" zoomScalePageLayoutView="92" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView view="pageLayout" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9:P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1369,7 +1566,13 @@
     <col min="4" max="4" width="18.25" customWidth="1"/>
     <col min="6" max="6" width="16.875" customWidth="1"/>
     <col min="8" max="8" width="27" customWidth="1"/>
-    <col min="9" max="9" width="18.75" customWidth="1"/>
+    <col min="9" max="9" width="23.375" customWidth="1"/>
+    <col min="10" max="10" width="8.875" customWidth="1"/>
+    <col min="11" max="14" width="9" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5" customWidth="1"/>
+    <col min="16" max="16" width="13.875" customWidth="1"/>
+    <col min="17" max="17" width="26" customWidth="1"/>
+    <col min="18" max="18" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.15">
@@ -1393,10 +1596,16 @@
       <c r="I1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="34"/>
+      <c r="O1" s="34" t="s">
+        <v>0</v>
+      </c>
       <c r="P1" s="35"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="20"/>
+      <c r="Q1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
@@ -1410,7 +1619,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="G2" s="26"/>
       <c r="H2" s="7" t="s">
@@ -1419,10 +1628,16 @@
       <c r="I2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="25"/>
+      <c r="O2" s="25" t="s">
+        <v>48</v>
+      </c>
       <c r="P2" s="26"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="19"/>
+      <c r="Q2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="R2" s="19" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" s="27" t="s">
@@ -1437,7 +1652,9 @@
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
       <c r="I3" s="29"/>
-      <c r="O3" s="27"/>
+      <c r="O3" s="27" t="s">
+        <v>5</v>
+      </c>
       <c r="P3" s="28"/>
       <c r="Q3" s="28"/>
       <c r="R3" s="29"/>
@@ -1450,15 +1667,17 @@
       <c r="C4" s="31"/>
       <c r="D4" s="32"/>
       <c r="F4" s="25" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G4" s="31"/>
       <c r="H4" s="31"/>
       <c r="I4" s="32"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="26"/>
+      <c r="O4" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="32"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="34" t="s">
@@ -1477,9 +1696,13 @@
         <v>7</v>
       </c>
       <c r="I5" s="29"/>
-      <c r="O5" s="34"/>
+      <c r="O5" s="34" t="s">
+        <v>6</v>
+      </c>
       <c r="P5" s="35"/>
-      <c r="Q5" s="27"/>
+      <c r="Q5" s="27" t="s">
+        <v>7</v>
+      </c>
       <c r="R5" s="29"/>
     </row>
     <row r="6" spans="1:18" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -1492,16 +1715,20 @@
       </c>
       <c r="D6" s="26"/>
       <c r="F6" s="25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G6" s="26"/>
       <c r="H6" s="25" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="I6" s="26"/>
-      <c r="O6" s="25"/>
+      <c r="O6" s="25" t="s">
+        <v>50</v>
+      </c>
       <c r="P6" s="26"/>
-      <c r="Q6" s="25"/>
+      <c r="Q6" s="25" t="s">
+        <v>59</v>
+      </c>
       <c r="R6" s="26"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -1521,8 +1748,12 @@
       </c>
       <c r="H7" s="28"/>
       <c r="I7" s="29"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="27"/>
+      <c r="O7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="27" t="s">
+        <v>10</v>
+      </c>
       <c r="Q7" s="28"/>
       <c r="R7" s="29"/>
     </row>
@@ -1536,15 +1767,19 @@
       <c r="C8" s="31"/>
       <c r="D8" s="32"/>
       <c r="F8" s="8" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H8" s="31"/>
       <c r="I8" s="32"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="30"/>
+      <c r="O8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" s="30" t="s">
+        <v>71</v>
+      </c>
       <c r="Q8" s="31"/>
       <c r="R8" s="32"/>
     </row>
@@ -1569,10 +1804,16 @@
       <c r="I9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O9" s="27"/>
+      <c r="O9" s="27" t="s">
+        <v>12</v>
+      </c>
       <c r="P9" s="33"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="5"/>
+      <c r="Q9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="21" t="s">
@@ -1586,17 +1827,25 @@
         <v>1</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="14"/>
-      <c r="O10" s="21"/>
+      <c r="I10" s="14">
+        <v>0</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>52</v>
+      </c>
       <c r="P10" s="22"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="14"/>
+      <c r="Q10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="R10" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="21" t="s">
@@ -1610,53 +1859,65 @@
         <v>1</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="G11" s="22"/>
       <c r="H11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="14">
+        <v>0</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="14"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="14"/>
+      <c r="R11" s="14">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="21"/>
       <c r="B12" s="22"/>
       <c r="C12" s="13"/>
       <c r="D12" s="14"/>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="14"/>
+      <c r="O12" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="I12" s="14"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="14"/>
+      <c r="R12" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="21"/>
       <c r="B13" s="22"/>
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
-      <c r="F13" s="21" t="s">
-        <v>57</v>
-      </c>
+      <c r="F13" s="21"/>
       <c r="G13" s="22"/>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="13"/>
+      <c r="I13" s="14"/>
+      <c r="O13" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="14"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="14"/>
+      <c r="R13" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="21"/>
@@ -1753,16 +2014,15 @@
       <c r="H20" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I20" s="16" t="str">
-        <f>IF(SUM(I10:I19)=0,"",SUM(I10:I19))</f>
-        <v/>
+      <c r="I20" s="16">
+        <v>0</v>
       </c>
       <c r="Q20" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="R20" s="16" t="str">
+      <c r="R20" s="16">
         <f>IF(SUM(R10:R19)=0,"",SUM(R10:R19))</f>
-        <v/>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1833,7 +2093,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8 F8 O8" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8 O8 F8" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"計画立案,要求分析,構造化分析,構造化設計,実装／単体テスト,テスト,その他"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2352,14 +2612,14 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScale="99" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="99" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="10.625" customWidth="1"/>
     <col min="4" max="4" width="37.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
@@ -2389,116 +2649,278 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="9">
+        <v>43984</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="9">
+        <v>43984</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="9">
+        <v>43984</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+    <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+    <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="9">
+        <v>43985</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="9">
+        <v>43985</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="9">
+        <v>43985</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="9">
+        <v>43985</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="9">
+        <v>43985</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="9">
+        <v>43985</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="9">
+        <v>43985</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="3"/>
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -2507,7 +2929,9 @@
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="3"/>
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
